--- a/biology/Médecine/Affection_respiratoire_provoquée_par_les_poussières_textiles_végétales/Affection_respiratoire_provoquée_par_les_poussières_textiles_végétales.xlsx
+++ b/biology/Médecine/Affection_respiratoire_provoquée_par_les_poussières_textiles_végétales/Affection_respiratoire_provoquée_par_les_poussières_textiles_végétales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Affection_respiratoire_provoqu%C3%A9e_par_les_poussi%C3%A8res_textiles_v%C3%A9g%C3%A9tales</t>
+          <t>Affection_respiratoire_provoquée_par_les_poussières_textiles_végétales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une affection respiratoire provoquée par les poussières textiles végétales peut être reconnue comme maladie professionnelle en France et dans certains pays, sous certaines conditions.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Affection_respiratoire_provoqu%C3%A9e_par_les_poussi%C3%A8res_textiles_v%C3%A9g%C3%A9tales</t>
+          <t>Affection_respiratoire_provoquée_par_les_poussières_textiles_végétales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Régime général
-Régime agricole
-Données professionnelles
-Données médicales</t>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Affection_respiratoire_provoquée_par_les_poussières_textiles_végétales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affection_respiratoire_provoqu%C3%A9e_par_les_poussi%C3%A8res_textiles_v%C3%A9g%C3%A9tales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
